--- a/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Payroll_history.xlsx
+++ b/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Payroll_history.xlsx
@@ -34,6 +34,21 @@
     <t>D8020</t>
   </si>
   <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
     <t>D1000</t>
   </si>
   <si>
@@ -49,19 +64,19 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
   </si>
   <si>
     <t>D1010</t>
@@ -77,21 +92,6 @@
   </si>
   <si>
     <t>D9012</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
   <si>
     <t>D1100</t>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>15253.59</v>
+        <v>21770.55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>12963.97</v>
+        <v>7638.40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3545.86</v>
+        <v>15791.01</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4821.47</v>
+        <v>2340.66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>5137.40</v>
+        <v>3615.06</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>21770.55</v>
+        <v>15253.59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>7638.40</v>
+        <v>12963.97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>15791.01</v>
+        <v>3545.86</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2340.66</v>
+        <v>4821.47</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3615.06</v>
+        <v>5137.40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>67367.44</v>
+        <v>43171.40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>28244.48</v>
+        <v>29130.29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>8031.07</v>
+        <v>6523.88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>8894.71</v>
+        <v>4802.84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>1195.00</v>
+        <v>12311.26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>43171.40</v>
+        <v>67367.44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>29130.29</v>
+        <v>28244.48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>6523.88</v>
+        <v>8031.07</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>4802.84</v>
+        <v>8894.71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>12311.26</v>
+        <v>1195.00</v>
       </c>
     </row>
     <row r="27" spans="1:2">
